--- a/mosip_master/xlsx/app_detail.xlsx
+++ b/mosip_master/xlsx/app_detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">fra</t>
   </si>
   <si>
+    <t xml:space="preserve">10001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pré-inscription</t>
   </si>
   <si>
@@ -116,6 +119,117 @@
   </si>
   <si>
     <t xml:space="preserve">Portail Web pour les services de génération de post-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ ನೋಂದಣಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ಗ್ರಾಹಕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿಗಾಗಿ ಡೆಸ್ಕ್‌ಟಾಪ್ ಅಪ್ಲಿಕೇಶನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ಪ್ರೊಸೆಸರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರದ ಪ್ರಕ್ರಿಯೆಗಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಸೇವಾ ಪೂರೈಕೆದಾರರ ದೃಢೀಕರಣಕ್ಕಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ನಿಯಂತ್ರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಪ್ಲಿಕೇಶನ್‌ಗಳನ್ನು ಕಾನ್ಫಿಗರ್ ಮಾಡಲು ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಿವಾಸ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व-पंजीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व पंजीकरण के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण ग्राहक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के लिए डेस्कटॉप आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण प्रोसेसर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आईडी प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">तृतीय पक्ष सेवा प्रदाताओं की पुष्टि के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आईडी नियंत्रण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">होम पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவுகளுக்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு வாடிக்கையாளர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுகளுக்கான டெஸ்க்டாப் பயன்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு செயலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுக்குப் பிந்தைய செயல்முறைக்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஐடி அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மூன்றாம் தரப்பு சேவை வழங்குநரின் அங்கீகாரத்திற்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அடையாளக் கட்டுப்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பயன்பாடுகளை உள்ளமைப்பதற்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குடியுரிமை போர்ட்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">போஸ்ட் ஐடி உருவாக்கும் சேவைகளுக்கான இணைய போர்டல்</t>
   </si>
 </sst>
 </file>
@@ -244,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,14 +493,14 @@
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>10001</v>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -400,10 +514,10 @@
         <v>10003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -417,10 +531,10 @@
         <v>10005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -434,10 +548,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -451,10 +565,10 @@
         <v>10009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -468,12 +582,318 @@
         <v>10011</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/app_detail.xlsx
+++ b/mosip_master/xlsx/app_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\mosip-data-dst-dev-1.2.0.1-B4\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B24E8-C1EA-4408-9721-B5C60F1E0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EFACD-F904-47ED-8E2B-518D76A55103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>lang_code</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,6 +720,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="1">
         <v>10011</v>
       </c>

--- a/mosip_master/xlsx/app_detail.xlsx
+++ b/mosip_master/xlsx/app_detail.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\mosip-data-dst-dev-1.2.0.1-B4\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EFACD-F904-47ED-8E2B-518D76A55103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>lang_code</t>
   </si>
@@ -82,57 +84,23 @@
   </si>
   <si>
     <t>Web portal for Post ID generation services</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>पूर्व-पंजीकरण</t>
-  </si>
-  <si>
-    <t>पंजीकरण ग्राहक</t>
-  </si>
-  <si>
-    <t>पंजीकरण प्रोसेसर</t>
-  </si>
-  <si>
-    <t>आईडी प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t>आईडी नियंत्रण</t>
-  </si>
-  <si>
-    <t>निवासी पोर्टल</t>
-  </si>
-  <si>
-    <t>पूर्व-पंजीकरण के लिए वेब पोर्टल</t>
-  </si>
-  <si>
-    <t>पंजीकरण के लिए डेस्कटॉप एप्लिकेशन</t>
-  </si>
-  <si>
-    <t>पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
-  </si>
-  <si>
-    <t>तृतीय पक्ष सेवा प्रदाता प्रमाणीकरण के लिए आवेदन</t>
-  </si>
-  <si>
-    <t>अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
-  </si>
-  <si>
-    <t>पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -141,16 +109,353 @@
       <name val="Cambria"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,9 +478,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -187,17 +734,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,26 +870,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,23 +905,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,33 +1046,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.45454545454546" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="1"/>
+    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="8.45454545454546" style="1"/>
+    <col min="3" max="3" width="20.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="8.45454545454546" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -549,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -566,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -583,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -600,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -634,110 +1186,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10005</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10007</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10009</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10011</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>